--- a/v0.7/ValueSet-insurance-company-owners.xlsx
+++ b/v0.7/ValueSet-insurance-company-owners.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hcx-project.github.io/hcx-specs/v0.7/ValueSet-insurance-company-owners.html</t>
+    <t>https://ig.hcxprotocol.io/v0.7/ValueSet-insurance-company-owners.html</t>
   </si>
   <si>
     <t>Version</t>
